--- a/Class/Pra/Book1.xlsx
+++ b/Class/Pra/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UdeM\Class\Pra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C72E56-0447-4365-8E26-413E33F73B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0793F5-7A6C-4B08-AF10-7B6DBF5C6FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A91727D3-E38B-4CB7-9845-3CBFC702AC99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>R</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>complex(x)  # to complex</t>
+  </si>
+  <si>
+    <t>missing_value</t>
   </si>
 </sst>
 </file>
@@ -577,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7A58BD-9379-4695-8A2A-455997A6B63C}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,6 +711,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
